--- a/cyberpuerta.xlsx
+++ b/cyberpuerta.xlsx
@@ -453,476 +453,476 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Logitech Webcam HD Pro C920 con Micrófono, Full HD, 1920 x 1080 Pixeles, USB 2.0, Negro</t>
+          <t>Monitor Acteck 933858 LED 21.5", Full HD, 75Hz, HDMI, Negro</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$889.00</t>
+          <t>$1,079.00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>98</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Amazon Echo Dot Asistente de Voz 5ta Generación, Inalámbrico, WiFi, Bluetooth, Negro</t>
+          <t>Monitor BenQ GW2780 LED 27'', Full HD, HDMI, Negro</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$729.00</t>
+          <t>$2,269.00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>20</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Apple AirPods (2da. Generación), Inalámbrico, Bluetooth, Blanco - incluye Estuche de Carga Alámbrico</t>
+          <t>SSD Externo Kingston XS1000, 2TB, USB C, Negro</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$2,169.00</t>
+          <t>$1,769.00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>57</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Mousepad Gamer Ocelot Gaming OMPXL01, 80 x 30cm, Grosor 4mm, Negro</t>
+          <t>Kit Memoria RAM Kingston FURY Beast RGB DDR5, 6000MHz, 32GB (2 x 16GB), On-Die ECC, CL36, XMP</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$193.00</t>
+          <t>$2,109.00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1911</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Memoria RAM Adata AD5U48008G-S DDR5, 4800MHz, 8GB, ECC, CL40</t>
+          <t>Fuente de Poder Cooler Master MWE 650 BRONZE V2 80 PLUS Bronze, 20+4 pin ATX, 120mm, 650W</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>$461.00</t>
+          <t>$1,089.00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>32</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Teclado Logitech K480 Multiplataforma, Inalámbrico, Bluetooth, Negro (Español)</t>
+          <t>Mimosa Networks Radio de Backhaul Modular C5x IP67, 8dBi, 4.9 - 6.4GHz - No Incluye Inyector PoE</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$474.00</t>
+          <t>$1,539.00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>461</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Teclado Gamer Naceb Atheris RGB Una Mano, Alámbrico, Negro</t>
+          <t>Mousepad Gamer Ocelot Gaming OMPXL01, 80 x 30cm, Grosor 4mm, Negro</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>$173.00</t>
+          <t>$193.00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1907</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mousepad Balam Rush Ragnarok MP980 RGB, 90 x 40cm, 4mm, Negro</t>
+          <t>Monitor Lenovo ThinkVision C22e-20 LED 21.4", Full HD, HDMI, Negro</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>$220.00</t>
+          <t>$1,399.00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Kensington Base martFit Easy Riser para Laptop 17", Gris</t>
+          <t>Memoria RAM Adata AD5U48008G-S DDR5, 4800MHz, 8GB, ECC, CL40</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>$151.00</t>
+          <t>$461.00</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Apple iPhone 12, 256GB, Negro - Renewed by Apple</t>
+          <t>Apple AirPods (2da. Generación), Inalámbrico, Bluetooth, Blanco - incluye Estuche de Carga Alámbrico</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>$7,689.00</t>
+          <t>$2,399.00</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>53</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Mouse Logitech Óptico POP, Inalámbrico, 4000DPI, Violeta/Menta</t>
+          <t>Teclado Logitech K480 Multiplataforma, Inalámbrico, Bluetooth, Negro (Español)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>$433.00</t>
+          <t>$474.00</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>62</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Teclado Logitech Mx Keys Mini, Inalámbrico, RF Wireless/Bluetooth, Grafito (Español)</t>
+          <t>Teclado Gamer Naceb Atheris RGB Una Mano, Alámbrico, Negro</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>$1,409.00</t>
+          <t>$173.00</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>HyperX Audífonos Gamer Cloud Stinger Core, Alámbrico, 1.3 Metros, 3.5mm, Negro/Azul</t>
+          <t>Mousepad Balam Rush Ragnarok MP980 RGB, 90 x 40cm, 4mm, Negro</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>$268.00</t>
+          <t>$220.00</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SSD Acer FA100 NVMe, 512GB, PCI Express 3.0, M.2</t>
+          <t>Kensington Base martFit Easy Riser para Laptop 17", Gris</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>$619.00</t>
+          <t>$151.00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>78</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Teclado Logitech POP, RF Inalámbrico + Bluetooth, Rosa (Español)</t>
+          <t>Apple iPhone 12, 256GB, Negro - Renewed by Apple</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>$949.00</t>
+          <t>$7,689.00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>26</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Apple iPhone 12 Dual Sim, 64GB, Blanco - Renewed by Apple</t>
+          <t>Memoria Flash Sandisk Extreme, 128GB MicroSDXC UHS-I Clase 10</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>$6,809.00</t>
+          <t>$245.00</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>476</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Apple iPhone 12 Dual Sim, 64GB, Negro - Renewed by Apple</t>
+          <t>Tablet Samsung Galaxy Tab A9 8.7", 64GB, Android 13, Gris</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>$6,809.00</t>
+          <t>$2,249.00</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>40</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Monitor Gamer Balam Rush Odissey LED 23.8" Full HD, FreeSync, 144Hz, HDMI, Negro</t>
+          <t>Mouse Logitech Óptico POP, Inalámbrico, 4000DPI, Violeta/Menta</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>$2,619.00</t>
+          <t>$433.00</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Gabinete XPG Starker Air con Ventana ARGB, Midi-Tower, Mini-ITX/Micro-ATX/ATX, USB 3.0, sin Fuente, 2 Ventiladores Instalados, Blanco ― ¡Envío gratis limitado a 5 unidades por cliente!</t>
+          <t>HyperX Audífonos Gamer Cloud Stinger Core, Alámbrico, 1.3 Metros, 3.5mm, Negro/Azul</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>$869.00</t>
+          <t>$268.00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>50</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Gabinete Naceb Cypher con Ventana RGB, Midi-Tower, ATX, USB 3.0/2.0, sin Fuente, 3 Ventiladores Instalados, Negro</t>
+          <t>Teclado Logitech Mx Keys Mini, Inalámbrico, RF Wireless/Bluetooth, Grafito (Español)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>$699.00</t>
+          <t>$1,409.00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>20</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Logitech Audífonos con Micrófono H151, Alámbrico, 3.5mm, Negro</t>
+          <t>Teclado Logitech POP, RF Inalámbrico + Bluetooth, Rosa (Español)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>$236.00</t>
+          <t>$949.00</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SSD Externo SanDisk Extreme Portable, 2TB, USB C 3.2, Azul, A Prueba de Agua, Polvo y Golpes</t>
+          <t>SSD Acer FA100 NVMe, 512GB, PCI Express 3.0, M.2</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>$3,059.00</t>
+          <t>$639.00</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>53</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Teclado Gamer Yeyian Spark Serie 2000 RGB, Teclado Mecánico, Outemu Red, Alámbrico, Negro (Español)</t>
+          <t>Apple iPhone 12 Dual Sim, 64GB, Negro - Renewed by Apple</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>$436.00</t>
+          <t>$6,809.00</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Tarjeta de Video ASRock AMD Radeon RX 6600 Challenger D, 8GB 128-bit GDDR6, PCI Express 4.0</t>
+          <t>Apple iPhone 12 Dual Sim, 64GB, Blanco - Renewed by Apple</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>$4,199.00</t>
+          <t>$6,809.00</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SSD Adata Legend 800 NVMe, 1TB, PCI Express 4.0, M.2</t>
+          <t>Monitor Gamer Balam Rush Odissey LED 23.8" Full HD, FreeSync, 144Hz, HDMI, Negro</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>$999.00</t>
+          <t>$2,619.00</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Tóner Brother TN-650 Negro, 8000 Páginas</t>
+          <t>Gabinete XPG Starker Air con Ventana ARGB, Midi-Tower, Mini-ITX/Micro-ATX/ATX, USB 3.0, sin Fuente, 2 Ventiladores Instalados, Blanco ― ¡Envío gratis limitado a 5 unidades por cliente!</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>$1,689.00</t>
+          <t>$869.00</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Memoria RAM Adata AD5U480016G-S DDR5, 4800MHz, 16GB, ECC, CL40</t>
+          <t>Gabinete Naceb Cypher con Ventana RGB, Midi-Tower, ATX, USB 3.0/2.0, sin Fuente, 3 Ventiladores Instalados, Negro</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>$799.00</t>
+          <t>$699.00</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>55</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Logitech Audífonos Gamer G733 7.1 para PS4/PC, Inalámbrico, USB, Negro</t>
+          <t>Teclado Gamer Yeyian Spark Serie 2000 RGB, Teclado Mecánico, Outemu Red, Alámbrico, Negro (Español)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>$2,149.00</t>
+          <t>$433.00</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -934,63 +934,63 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>$444.00</t>
+          <t>$441.00</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Monitor Acteck Captive Vivid SP240 LED IPS 23.8", Full HD, 75Hz, HDMI, Bocinas Integradas (2 x 3W RMS), Negro</t>
+          <t>Tarjeta de Video ASRock AMD Radeon RX 6600 Challenger D, 8GB 128-bit GDDR6, PCI Express 4.0</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>$1,349.00</t>
+          <t>$4,199.00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>29</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Logitech Palanca Driving Force Shifter para Volantes de Carreras G29 y G920</t>
+          <t>Logitech Audífonos con Micrófono H151, Alámbrico, 3.5mm, Negro</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>$729.00</t>
+          <t>$236.00</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>20</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Nexxt Solutions Foco Regulable LED Inteligente A19, WiFi, RGB, Base E26/E27, 9W, 800 Lúmenes, Blanco, Ahorro de 85% vs Foco Tradicional 60W</t>
+          <t>SSD Externo SanDisk Extreme Portable, 2TB, USB C 3.2, Azul, A Prueba de Agua, Polvo y Golpes</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>$163.00</t>
+          <t>$3,079.00</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>37</t>
         </is>
       </c>
     </row>

--- a/cyberpuerta.xlsx
+++ b/cyberpuerta.xlsx
@@ -453,544 +453,544 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Monitor Acteck 933858 LED 21.5", Full HD, 75Hz, HDMI, Negro</t>
+          <t>Mousepad Gamer Ocelot Gaming OMPXL01, 80 x 30cm, Grosor 4mm, Negro</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$1,079.00</t>
+          <t>$195.00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>1901</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Monitor BenQ GW2780 LED 27'', Full HD, HDMI, Negro</t>
+          <t>Monitor Lenovo ThinkVision C22e-20 LED 21.4", Full HD, HDMI, Negro</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$2,269.00</t>
+          <t>$1,399.00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SSD Externo Kingston XS1000, 2TB, USB C, Negro</t>
+          <t>Memoria RAM Adata AD5U48008G-S DDR5, 4800MHz, 8GB, ECC, CL40</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$1,769.00</t>
+          <t>$468.00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Kit Memoria RAM Kingston FURY Beast RGB DDR5, 6000MHz, 32GB (2 x 16GB), On-Die ECC, CL36, XMP</t>
+          <t>Apple AirPods (2da. Generación), Inalámbrico, Bluetooth, Blanco - incluye Estuche de Carga Alámbrico</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$2,109.00</t>
+          <t>$2,399.00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>53</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fuente de Poder Cooler Master MWE 650 BRONZE V2 80 PLUS Bronze, 20+4 pin ATX, 120mm, 650W</t>
+          <t>Teclado Logitech K480 Multiplataforma, Inalámbrico, Bluetooth, Negro (Español)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>$1,089.00</t>
+          <t>$474.00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>62</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Mimosa Networks Radio de Backhaul Modular C5x IP67, 8dBi, 4.9 - 6.4GHz - No Incluye Inyector PoE</t>
+          <t>Teclado Gamer Naceb Atheris RGB Una Mano, Alámbrico, Negro</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$1,539.00</t>
+          <t>$173.00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Mousepad Gamer Ocelot Gaming OMPXL01, 80 x 30cm, Grosor 4mm, Negro</t>
+          <t>Mousepad Balam Rush Ragnarok MP980 RGB, 90 x 40cm, 4mm, Negro</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>$193.00</t>
+          <t>$220.00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1907</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Monitor Lenovo ThinkVision C22e-20 LED 21.4", Full HD, HDMI, Negro</t>
+          <t>Kensington Base martFit Easy Riser para Laptop 17", Gris</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>$1,399.00</t>
+          <t>$151.00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>78</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Memoria RAM Adata AD5U48008G-S DDR5, 4800MHz, 8GB, ECC, CL40</t>
+          <t>Apple iPhone 12, 256GB, Negro - Renewed by Apple</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>$461.00</t>
+          <t>$7,689.00</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>24</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Apple AirPods (2da. Generación), Inalámbrico, Bluetooth, Blanco - incluye Estuche de Carga Alámbrico</t>
+          <t>Memoria Flash Sandisk Extreme, 128GB MicroSDXC UHS-I Clase 10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>$2,399.00</t>
+          <t>$245.00</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>473</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Teclado Logitech K480 Multiplataforma, Inalámbrico, Bluetooth, Negro (Español)</t>
+          <t>Gabinete XPG Valor Air con Ventana, Midi-Tower, ATX/Mini-ITX/Micro-ATX, USB 3.2, sin Fuente, 4 Ventiladores Instalados, Blanco ― ¡Envío gratis limitado a 5 unidades por cliente!</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>$474.00</t>
+          <t>$779.00</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>38</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Teclado Gamer Naceb Atheris RGB Una Mano, Alámbrico, Negro</t>
+          <t>Tablet Samsung Galaxy Tab A9 8.7", 64GB, Android 13, Gris</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>$173.00</t>
+          <t>$2,249.00</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>40</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Mousepad Balam Rush Ragnarok MP980 RGB, 90 x 40cm, 4mm, Negro</t>
+          <t>Mouse Logitech Óptico POP, Inalámbrico, 4000DPI, Violeta/Menta</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>$220.00</t>
+          <t>$433.00</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Kensington Base martFit Easy Riser para Laptop 17", Gris</t>
+          <t>HyperX Audífonos Gamer Cloud Stinger Core, Alámbrico, 1.3 Metros, 3.5mm, Negro/Azul</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>$151.00</t>
+          <t>$268.00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>44</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Apple iPhone 12, 256GB, Negro - Renewed by Apple</t>
+          <t>Teclado Logitech Mx Keys Mini, Inalámbrico, RF Wireless/Bluetooth, Grafito (Español)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>$7,689.00</t>
+          <t>$1,409.00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>20</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Memoria Flash Sandisk Extreme, 128GB MicroSDXC UHS-I Clase 10</t>
+          <t>Teclado Logitech POP, RF Inalámbrico + Bluetooth, Rosa (Español)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>$245.00</t>
+          <t>$949.00</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Tablet Samsung Galaxy Tab A9 8.7", 64GB, Android 13, Gris</t>
+          <t>SSD Acer FA100 NVMe, 512GB, PCI Express 3.0, M.2</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>$2,249.00</t>
+          <t>$639.00</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>50</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Mouse Logitech Óptico POP, Inalámbrico, 4000DPI, Violeta/Menta</t>
+          <t>Apple iPhone 12 Dual Sim, 64GB, Negro - Renewed by Apple</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>$433.00</t>
+          <t>$6,809.00</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>HyperX Audífonos Gamer Cloud Stinger Core, Alámbrico, 1.3 Metros, 3.5mm, Negro/Azul</t>
+          <t>Apple iPhone 12 Dual Sim, 64GB, Blanco - Renewed by Apple</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>$268.00</t>
+          <t>$6,809.00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Teclado Logitech Mx Keys Mini, Inalámbrico, RF Wireless/Bluetooth, Grafito (Español)</t>
+          <t>Monitor Gamer Balam Rush Odissey LED 23.8" Full HD, FreeSync, 144Hz, HDMI, Negro</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>$1,409.00</t>
+          <t>$2,619.00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Teclado Logitech POP, RF Inalámbrico + Bluetooth, Rosa (Español)</t>
+          <t>Gabinete XPG Starker Air con Ventana ARGB, Midi-Tower, Mini-ITX/Micro-ATX/ATX, USB 3.0, sin Fuente, 2 Ventiladores Instalados, Blanco ― ¡Envío gratis limitado a 5 unidades por cliente!</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>$949.00</t>
+          <t>$869.00</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SSD Acer FA100 NVMe, 512GB, PCI Express 3.0, M.2</t>
+          <t>Gabinete Naceb Cypher con Ventana RGB, Midi-Tower, ATX, USB 3.0/2.0, sin Fuente, 3 Ventiladores Instalados, Negro</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>$639.00</t>
+          <t>$699.00</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Apple iPhone 12 Dual Sim, 64GB, Negro - Renewed by Apple</t>
+          <t>Teclado Gamer Yeyian Spark Serie 2000 RGB, Teclado Mecánico, Outemu Red, Alámbrico, Negro (Español)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>$6,809.00</t>
+          <t>$433.00</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Apple iPhone 12 Dual Sim, 64GB, Blanco - Renewed by Apple</t>
+          <t>Teclado Gamer Yeyian Spark Serie 2000 RGB, Teclado Mecánico, Outemu Blue, Alámbrico, Negro (Español)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>$6,809.00</t>
+          <t>$441.00</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Monitor Gamer Balam Rush Odissey LED 23.8" Full HD, FreeSync, 144Hz, HDMI, Negro</t>
+          <t>Tarjeta de Video ASRock AMD Radeon RX 6600 Challenger D, 8GB 128-bit GDDR6, PCI Express 4.0</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>$2,619.00</t>
+          <t>$4,199.00</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>29</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Gabinete XPG Starker Air con Ventana ARGB, Midi-Tower, Mini-ITX/Micro-ATX/ATX, USB 3.0, sin Fuente, 2 Ventiladores Instalados, Blanco ― ¡Envío gratis limitado a 5 unidades por cliente!</t>
+          <t>Logitech Audífonos con Micrófono H151, Alámbrico, 3.5mm, Negro</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>$869.00</t>
+          <t>$236.00</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Gabinete Naceb Cypher con Ventana RGB, Midi-Tower, ATX, USB 3.0/2.0, sin Fuente, 3 Ventiladores Instalados, Negro</t>
+          <t>SSD Externo SanDisk Extreme Portable, 2TB, USB C 3.2, Azul, A Prueba de Agua, Polvo y Golpes</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>$699.00</t>
+          <t>$3,079.00</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>35</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Teclado Gamer Yeyian Spark Serie 2000 RGB, Teclado Mecánico, Outemu Red, Alámbrico, Negro (Español)</t>
+          <t>Logitech Webcam HD Pro C920 con Micrófono, Full HD, 1920 x 1080 Pixeles, USB 2.0, Negro</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>$433.00</t>
+          <t>$949.00</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>56</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Teclado Gamer Yeyian Spark Serie 2000 RGB, Teclado Mecánico, Outemu Blue, Alámbrico, Negro (Español)</t>
+          <t>Tóner Brother TN-650 Negro, 8000 Páginas</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>$441.00</t>
+          <t>$1,689.00</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>480</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Tarjeta de Video ASRock AMD Radeon RX 6600 Challenger D, 8GB 128-bit GDDR6, PCI Express 4.0</t>
+          <t>Logitech Palanca Driving Force Shifter para Volantes de Carreras G29 y G920</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>$4,199.00</t>
+          <t>$729.00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Logitech Audífonos con Micrófono H151, Alámbrico, 3.5mm, Negro</t>
+          <t>Gabinete XPG Starker Air con Ventana ARGB, Midi-Tower, Mini-ITX/Micro-ATX/ATX, USB 3.0, sin Fuente, 2 Ventiladores Instalados, Rosa ― ¡Envío gratis limitado a 5 unidades por cliente!</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>$236.00</t>
+          <t>$859.00</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>54</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SSD Externo SanDisk Extreme Portable, 2TB, USB C 3.2, Azul, A Prueba de Agua, Polvo y Golpes</t>
+          <t>Tóner Brother TN-450 Negro, 2600 Páginas</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>$3,079.00</t>
+          <t>$1,119.00</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>9</t>
         </is>
       </c>
     </row>

--- a/cyberpuerta.xlsx
+++ b/cyberpuerta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,544 +453,272 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Mousepad Gamer Ocelot Gaming OMPXL01, 80 x 30cm, Grosor 4mm, Negro</t>
+          <t>SSD Externo Kingston XS1000, 1TB, USB C, Negro</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$195.00</t>
+          <t>$1,119.00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1901</t>
+          <t>45</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Monitor Lenovo ThinkVision C22e-20 LED 21.4", Full HD, HDMI, Negro</t>
+          <t>Multifuncional Brother DCP-T220 InkBenefit Tank, Color, Inyección, Print/Scan/Copy</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$1,399.00</t>
+          <t>$2,169.00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>169</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Memoria RAM Adata AD5U48008G-S DDR5, 4800MHz, 8GB, ECC, CL40</t>
+          <t>Laptop Lenovo IdeaPad Slim 3 15IRU8 15.6" Full HD, Intel Core i7-1355U 1.70GHz, 16GB, 1TB SSD, Windows 11 Home 64-bit, Español, Gris</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$468.00</t>
+          <t>$15,999.00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>58</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Apple AirPods (2da. Generación), Inalámbrico, Bluetooth, Blanco - incluye Estuche de Carga Alámbrico</t>
+          <t>ZKTeco Control de Acceso y Asistencia Biométrico ZK-K40 ID, 1000 Usuarios</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$2,399.00</t>
+          <t>$1,409.00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Teclado Logitech K480 Multiplataforma, Inalámbrico, Bluetooth, Negro (Español)</t>
+          <t>Mousepad Gamer Ocelot Gaming OMPXL01, 80 x 30cm, Grosor 4mm, Negro</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>$474.00</t>
+          <t>$186.00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>1906</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Teclado Gamer Naceb Atheris RGB Una Mano, Alámbrico, Negro</t>
+          <t>Memoria RAM Adata AD5U48008G-S DDR5, 4800MHz, 8GB, ECC, CL40</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$173.00</t>
+          <t>$468.00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Mousepad Balam Rush Ragnarok MP980 RGB, 90 x 40cm, 4mm, Negro</t>
+          <t>Teclado Logitech K480 Multiplataforma, Inalámbrico, Bluetooth, Negro (Español)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>$220.00</t>
+          <t>$474.00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>68</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Kensington Base martFit Easy Riser para Laptop 17", Gris</t>
+          <t>Teclado Gamer Naceb Atheris RGB Una Mano, Alámbrico, Negro</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>$151.00</t>
+          <t>$173.00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Apple iPhone 12, 256GB, Negro - Renewed by Apple</t>
+          <t>Mousepad Balam Rush Ragnarok MP980 RGB, 90 x 40cm, 4mm, Negro</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>$7,689.00</t>
+          <t>$220.00</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Memoria Flash Sandisk Extreme, 128GB MicroSDXC UHS-I Clase 10</t>
+          <t>Mousepad Gamer Ocelot Gaming OMP01, 35 x 25cm, Grosor 3mm, Negro</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>$245.00</t>
+          <t>$185.00</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>473</t>
+          <t>1583</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Gabinete XPG Valor Air con Ventana, Midi-Tower, ATX/Mini-ITX/Micro-ATX, USB 3.2, sin Fuente, 4 Ventiladores Instalados, Blanco ― ¡Envío gratis limitado a 5 unidades por cliente!</t>
+          <t>Tablet Samsung Galaxy Tab A9 8.7", 64GB, Android 13, Gris</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>$779.00</t>
+          <t>$2,049.00</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Tablet Samsung Galaxy Tab A9 8.7", 64GB, Android 13, Gris</t>
+          <t>Kensington Base martFit Easy Riser para Laptop 17", Gris</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>$2,249.00</t>
+          <t>$151.00</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>75</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Mouse Logitech Óptico POP, Inalámbrico, 4000DPI, Violeta/Menta</t>
+          <t>Apple iPhone 12, 256GB, Negro - Renewed by Apple</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>$433.00</t>
+          <t>$7,689.00</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>20</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HyperX Audífonos Gamer Cloud Stinger Core, Alámbrico, 1.3 Metros, 3.5mm, Negro/Azul</t>
+          <t>Logitech Webcam HD Pro C920s con Micrófono, Full HD, 1920 x 1080 Pixeles, USB 2.0, Negro</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>$268.00</t>
+          <t>$1,399.00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Teclado Logitech Mx Keys Mini, Inalámbrico, RF Wireless/Bluetooth, Grafito (Español)</t>
+          <t>Memoria Flash Sandisk Extreme, 128GB MicroSDXC UHS-I Clase 10</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>$1,409.00</t>
+          <t>$243.00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>471</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Teclado Logitech POP, RF Inalámbrico + Bluetooth, Rosa (Español)</t>
+          <t>Apple AirPods (2da. Generación), Inalámbrico, Bluetooth, Blanco - incluye Estuche de Carga Alámbrico</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>$949.00</t>
+          <t>$2,709.00</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>SSD Acer FA100 NVMe, 512GB, PCI Express 3.0, M.2</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>$639.00</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Apple iPhone 12 Dual Sim, 64GB, Negro - Renewed by Apple</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>$6,809.00</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Apple iPhone 12 Dual Sim, 64GB, Blanco - Renewed by Apple</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>$6,809.00</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Monitor Gamer Balam Rush Odissey LED 23.8" Full HD, FreeSync, 144Hz, HDMI, Negro</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>$2,619.00</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Gabinete XPG Starker Air con Ventana ARGB, Midi-Tower, Mini-ITX/Micro-ATX/ATX, USB 3.0, sin Fuente, 2 Ventiladores Instalados, Blanco ― ¡Envío gratis limitado a 5 unidades por cliente!</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>$869.00</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Gabinete Naceb Cypher con Ventana RGB, Midi-Tower, ATX, USB 3.0/2.0, sin Fuente, 3 Ventiladores Instalados, Negro</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>$699.00</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Teclado Gamer Yeyian Spark Serie 2000 RGB, Teclado Mecánico, Outemu Red, Alámbrico, Negro (Español)</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>$433.00</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Teclado Gamer Yeyian Spark Serie 2000 RGB, Teclado Mecánico, Outemu Blue, Alámbrico, Negro (Español)</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>$441.00</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Tarjeta de Video ASRock AMD Radeon RX 6600 Challenger D, 8GB 128-bit GDDR6, PCI Express 4.0</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>$4,199.00</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Logitech Audífonos con Micrófono H151, Alámbrico, 3.5mm, Negro</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>$236.00</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>SSD Externo SanDisk Extreme Portable, 2TB, USB C 3.2, Azul, A Prueba de Agua, Polvo y Golpes</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>$3,079.00</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Logitech Webcam HD Pro C920 con Micrófono, Full HD, 1920 x 1080 Pixeles, USB 2.0, Negro</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>$949.00</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Tóner Brother TN-650 Negro, 8000 Páginas</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>$1,689.00</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Logitech Palanca Driving Force Shifter para Volantes de Carreras G29 y G920</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>$729.00</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Gabinete XPG Starker Air con Ventana ARGB, Midi-Tower, Mini-ITX/Micro-ATX/ATX, USB 3.0, sin Fuente, 2 Ventiladores Instalados, Rosa ― ¡Envío gratis limitado a 5 unidades por cliente!</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>$859.00</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Tóner Brother TN-450 Negro, 2600 Páginas</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>$1,119.00</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>9</t>
+          <t>129</t>
         </is>
       </c>
     </row>

--- a/cyberpuerta.xlsx
+++ b/cyberpuerta.xlsx
@@ -453,272 +453,272 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SSD Externo Kingston XS1000, 1TB, USB C, Negro</t>
+          <t>Procesador AMD Ryzen 7 5800X, S-AM4, 3.80GHz, 8-Core, 32MB L3 Cache - no incluye Disipador</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$1,119.00</t>
+          <t>$3,219.00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>56</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Multifuncional Brother DCP-T220 InkBenefit Tank, Color, Inyección, Print/Scan/Copy</t>
+          <t>No Break Smartbitt SBNB2400 Línea Interactiva, 1200W, 2400VA, Entrada 82 - 148V, Salida 100 - 120V, 8 Contactos</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$2,169.00</t>
+          <t>$3,279.00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>44</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Laptop Lenovo IdeaPad Slim 3 15IRU8 15.6" Full HD, Intel Core i7-1355U 1.70GHz, 16GB, 1TB SSD, Windows 11 Home 64-bit, Español, Gris</t>
+          <t>Fuente de Poder XPG CORE REACTOR 80 PLUS Gold, 24-pin ATX, 120mm, 850W</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$15,999.00</t>
+          <t>$1,689.00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>450</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ZKTeco Control de Acceso y Asistencia Biométrico ZK-K40 ID, 1000 Usuarios</t>
+          <t>Xerox Phaser 3020, Blanco y Negro, Láser, Inalámbrico, Print ― ¡Precio especial limitado a 5 unidades por cliente!</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$1,409.00</t>
+          <t>$1,589.00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>45</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Mousepad Gamer Ocelot Gaming OMPXL01, 80 x 30cm, Grosor 4mm, Negro</t>
+          <t>SSD Acer FA200 NVMe, 2TB, PCI Express 4.0, M.2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>$186.00</t>
+          <t>$2,159.00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1906</t>
+          <t>323</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Memoria RAM Adata AD5U48008G-S DDR5, 4800MHz, 8GB, ECC, CL40</t>
+          <t>Procesador Intel Core i7-14700K, Intel UHD Graphics 770, S-1700, 3.40GHz, 20-Core, 33MB Cache (14va. Generación - Raptor Lake)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$468.00</t>
+          <t>$8,549.00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>61</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Teclado Logitech K480 Multiplataforma, Inalámbrico, Bluetooth, Negro (Español)</t>
+          <t>Gabinete Gigabyte C301 GLASS con Ventana, Midi-Tower, ATX/E-ATX/Micro-ATX/Mini-ITX, USB 3.0/USB-C, sin Fuente, 4 Ventiladores Instalados ARGB, Negro</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>$474.00</t>
+          <t>$1,469.00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>13</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Teclado Gamer Naceb Atheris RGB Una Mano, Alámbrico, Negro</t>
+          <t>Amazon Echo Dot Asistente de Voz 5ta Generación, Inalámbrico, WiFi, Bluetooth, Negro</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>$173.00</t>
+          <t>$799.00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>126</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Mousepad Balam Rush Ragnarok MP980 RGB, 90 x 40cm, 4mm, Negro</t>
+          <t>Procesador AMD Ryzen 7 5700G, S-AM4, 3.80GHz, 8-Core, 16MB L3 Caché - incluye Disipador Wraith Stealth</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>$220.00</t>
+          <t>$2,919.00</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>46</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Mousepad Gamer Ocelot Gaming OMP01, 35 x 25cm, Grosor 3mm, Negro</t>
+          <t>Teclado Logitech K480 Multiplataforma, Inalámbrico, Bluetooth, Negro (Español)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>$185.00</t>
+          <t>$499.00</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1583</t>
+          <t>27</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Tablet Samsung Galaxy Tab A9 8.7", 64GB, Android 13, Gris</t>
+          <t>Monitor Gamer Curvo AOC C27G2 LED 27", Full HD, FreeSync, 165Hz, HDMI, Negro/Rojo</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>$2,049.00</t>
+          <t>$3,159.00</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Kensington Base martFit Easy Riser para Laptop 17", Gris</t>
+          <t>Targus Maletín de Neopreno Slipskin Sleeve para Laptop 14", Negro</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>$151.00</t>
+          <t>$202.00</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>504</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Apple iPhone 12, 256GB, Negro - Renewed by Apple</t>
+          <t>Memoria RAM XPG Spectrix D60G RGB DDR4, 3600MHz, 8GB, Non-ECC, CL19, XMP</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>$7,689.00</t>
+          <t>$443.00</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Logitech Webcam HD Pro C920s con Micrófono, Full HD, 1920 x 1080 Pixeles, USB 2.0, Negro</t>
+          <t>Kensington Descansa Muñecas K52800WW, 43 x 1 x 10cm, Negro</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>$1,399.00</t>
+          <t>$111.00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>45</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Memoria Flash Sandisk Extreme, 128GB MicroSDXC UHS-I Clase 10</t>
+          <t>Canon Cartucho de Mantenimiento MC-G01</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>$243.00</t>
+          <t>$409.00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>69</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Apple AirPods (2da. Generación), Inalámbrico, Bluetooth, Blanco - incluye Estuche de Carga Alámbrico</t>
+          <t>Memoria RAM XPG Gammix D30 DDR4, 3200MHz, 16GB, Non-ECC, CL16, XMP, Rojo</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>$2,709.00</t>
+          <t>$699.00</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>23</t>
         </is>
       </c>
     </row>
